--- a/쇼핑몰DB.xlsx
+++ b/쇼핑몰DB.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\spring_workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6F83B-8256-4F38-829C-9570862AFFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{239C4E1C-79D8-481D-A521-AFBDBCCFDCE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,13 +224,37 @@
   </si>
   <si>
     <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,6 +412,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,9 +422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,49 +737,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C318EA7-A007-4846-948D-C1AF8CF010C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" customWidth="1"/>
+    <col min="12" max="12" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="10"/>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="10"/>
@@ -782,7 +805,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -818,7 +841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -848,7 +871,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -878,7 +901,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -908,7 +931,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>4</v>
       </c>
@@ -938,7 +961,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="F10" s="1">
         <v>5</v>
       </c>
@@ -961,7 +984,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="F11" s="1">
         <v>6</v>
       </c>
@@ -984,12 +1007,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="F12" s="1">
         <v>7</v>
       </c>
@@ -1012,7 +1035,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1044,7 +1067,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -1076,7 +1099,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -1108,7 +1131,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -1140,7 +1163,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -1172,7 +1195,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1198,7 +1221,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F19" s="1">
         <v>14</v>
       </c>
@@ -1221,7 +1244,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F20" s="1">
         <v>15</v>
       </c>
@@ -1244,7 +1267,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F21" s="1">
         <v>16</v>
       </c>
@@ -1267,19 +1290,19 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="F23" s="17" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="F23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1291,7 +1314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1311,7 +1334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -1331,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -1351,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -1365,7 +1388,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -1379,21 +1402,31 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="F31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1403,8 +1436,17 @@
       <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -1414,8 +1456,17 @@
       <c r="D34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>2</v>
       </c>
@@ -1425,8 +1476,17 @@
       <c r="D35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -1436,8 +1496,13 @@
       <c r="D36" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>4</v>
       </c>
@@ -1447,16 +1512,22 @@
       <c r="D37" s="1">
         <v>38</v>
       </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1465,14 +1536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8112E76-C31D-45EE-BF06-10F217007FB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15:O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/쇼핑몰DB.xlsx
+++ b/쇼핑몰DB.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,50 @@
   </si>
   <si>
     <t>2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img src=""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,9 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,6 +463,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -757,27 +801,29 @@
     <col min="10" max="10" width="15.59765625" customWidth="1"/>
     <col min="11" max="11" width="14.09765625" customWidth="1"/>
     <col min="12" max="12" width="13.09765625" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="10"/>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="J3" s="15" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="J3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
@@ -1008,11 +1054,11 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="F12" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1209,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -1195,7 +1241,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1221,7 +1267,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F19" s="1">
         <v>14</v>
       </c>
@@ -1244,7 +1290,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F20" s="1">
         <v>15</v>
       </c>
@@ -1267,7 +1313,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F21" s="1">
         <v>16</v>
       </c>
@@ -1290,19 +1336,22 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="F23" s="14" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1313,8 +1362,32 @@
       <c r="H24" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1333,8 +1406,14 @@
       <c r="H25" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N25" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -1354,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -1374,7 +1453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -1388,7 +1467,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -1402,19 +1481,19 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B31" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="F31" s="14" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="F31" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">

--- a/쇼핑몰DB.xlsx
+++ b/쇼핑몰DB.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,10 @@
   </si>
   <si>
     <t>naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S37"/>
+  <dimension ref="B3:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="H16" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -797,7 +801,7 @@
     <col min="5" max="5" width="5.19921875" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="15.59765625" customWidth="1"/>
     <col min="11" max="11" width="14.09765625" customWidth="1"/>
     <col min="12" max="12" width="13.09765625" customWidth="1"/>
@@ -1360,6 +1364,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J24" t="s">
@@ -1404,6 +1411,9 @@
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N25" t="s">
@@ -1432,6 +1442,9 @@
       <c r="H26" s="1">
         <v>2</v>
       </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1450,6 +1463,9 @@
         <v>4</v>
       </c>
       <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1466,6 +1482,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1480,6 +1497,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" s="14" t="s">
@@ -1505,7 +1523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1525,7 +1543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>2</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -1581,7 +1599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>4</v>
       </c>
@@ -1595,6 +1613,45 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/쇼핑몰DB.xlsx
+++ b/쇼핑몰DB.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,110 @@
   </si>
   <si>
     <t>회원id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문(6하원칙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤상품을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게(처리방법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송받을사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db넣을필요없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제액? 물건가액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불액(포인트차감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보(receiver)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card or pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법(paymethod)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +440,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,6 +593,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,22 +929,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S42"/>
+  <dimension ref="B3:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="H16" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.69921875" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.296875" customWidth="1"/>
     <col min="10" max="10" width="15.59765625" customWidth="1"/>
     <col min="11" max="11" width="14.09765625" customWidth="1"/>
     <col min="12" max="12" width="13.09765625" customWidth="1"/>
@@ -1653,9 +1797,180 @@
       <c r="G42" t="s">
         <v>66</v>
       </c>
+      <c r="H42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C53" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C59" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C60" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C61" s="24"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C62" s="24"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C63" s="24"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C59:F59"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F31:H31"/>
